--- a/biology/Zoologie/Ara_à_collier_jaune/Ara_à_collier_jaune.xlsx
+++ b/biology/Zoologie/Ara_à_collier_jaune/Ara_à_collier_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Primolius auricollis
 L'Ara à collier jaune, Propyrrhura auricollis ou Primolius auricollis, est une espèce de perroquets de la sous-famille des Psittacinae au plumage à dominante verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un ara plutôt petit (près de 38 cm) et agile. Son plumage est vert olive très vif, sa face est nue et blanche, un large collier jaune marque sa nuque (d'où son nom), ses ailes sont bleu ciel, sa queue rouge avec l'extrémité bleue, le bec noir et les iris rouges[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un ara plutôt petit (près de 38 cm) et agile. Son plumage est vert olive très vif, sa face est nue et blanche, un large collier jaune marque sa nuque (d'où son nom), ses ailes sont bleu ciel, sa queue rouge avec l'extrémité bleue, le bec noir et les iris rouges.
 L’Ara à Collier Jaune fait partie des plus petits aras du monde, il mesure environ 38 cm et pèse jusqu'à 250 g.
 Son plumage est coloré de différents teints allant du vert vif au vert olive et, comme son nom l’indique, un large collier de plumes jaunes recouvrant sa nuque et les plumes de ses ailes bleu ciel.
 Sa face est blanche et sans plume, sa queue est rouge et à l'extrémité bleue, son bec est noir, ses pattes sont roses et ses iris sont rouges.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Habitat naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve l'Ara à Collier Jaune dans les forêts humides et tropicales qui recouvrent les collines des Andes, mais également dans les parcelles sèches de feuillus et dans les prairies parsemées d'arbres et sont aussi présents à la lisière des arbres et dans les savanes.
 Contrairement à la plupart des espèces de perroquets, ils supportent très bien les profondes modifications qui sont apportées à leur habitat et sont relativement communs dans les bouquets d'arbres résiduels situés au milieu des terres agricoles et à la périphérie des grands centres urbains.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ara à Collier Jaune vit jusqu'à 40 ans.
 </t>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En vol, les aras à collier émettent de puissants cris qui résonnent aux oreilles européennes un peu comme le cri d'une mouette rieuse.
 En cas d'alarme, ils délivrent également des notes bruyantes et rudes dont on dit qu'elles ressemblent à celles de la cornure à tête bleue (Aratinga acuticaudata).
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ara à Collier Jaune consomme des fruits de Byrsonima et de figuiers, des fleurs d'erythrina, du maïs et différentes sortes de graines provenant des bois locaux.
 En captivité, son alimentation est composé principalement d'un mélange de graines pour perroquet et de fruits et légumes comme les pommes, poires, banane, cerises, melons, concombres, carottes, radis, etc.
@@ -671,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -689,7 +711,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison de nidification se déroule en décembre en Argentine, le nid est situé dans une cavité d'arbre parfois jusqu'à 20 mètres au-dessus du sol.
 La femelle pond en moyenne 3 ou 4 œufs qu'elle couvera seule pendant environ 23 jours, les jeunes quitteront le nid 2 mois plus tard cependant, les parents nourriront encore les petits 2 semaines avant le sevrage définitif.
@@ -706,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ara_%C3%A0_collier_jaune</t>
+          <t>Ara_à_collier_jaune</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +748,9 @@
           <t>Statut à l'état naturel</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas globalement menacée dans son état naturel.
 Au début des années 1980, en Bolivie, la capture des oiseaux pour le commerce des volières atteignait le chiffre inquiétant de plus de 3200 oiseaux par an mais heureusement, le trafic a été strictement interdit à partir de 1984.
